--- a/data/Subset 1/Video Mosaic Grade 3 Shirts and Pants 2.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 3 Shirts and Pants 2.xlsx
@@ -496,7 +496,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,7 +519,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -542,7 +542,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -588,7 +588,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -611,7 +611,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -634,7 +634,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -657,7 +657,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -703,7 +703,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -772,7 +772,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -795,7 +795,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -818,7 +818,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1347,7 +1347,7 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1512,7 +1512,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1535,7 +1535,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1558,7 +1558,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1581,7 +1581,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1673,7 +1673,7 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1696,7 +1696,7 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1811,7 +1811,7 @@
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1834,7 +1834,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1857,7 +1857,7 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1880,7 +1880,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
